--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\site-titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A25FF47-DD50-49C6-AC0A-95D67B7FEE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A339-F4D9-4624-9E40-D2CB85AB7C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Fortalece unhas e cabelos, contribui para a firmeza e elasticidade da pele, ajuda na saúde das articulações e cartilagens.</t>
   </si>
   <si>
-    <t>💊</t>
-  </si>
-  <si>
     <t>Mais Vendido</t>
   </si>
   <si>
@@ -111,13 +108,28 @@
   </si>
   <si>
     <t>Colágeno</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/1856087d1635cd200631840cc12b46426c21f1d9/image/colagen.jpeg</t>
+  </si>
+  <si>
+    <t>Pré-Treino Nuclear Rush – 100g</t>
+  </si>
+  <si>
+    <t>Energia explosiva, foco extremo, treino insano.</t>
+  </si>
+  <si>
+    <t>Suplemento energético com cafeína e taurina que aumenta energia, foco e resistência, reduzindo fadiga e oferecendo sabor agradável e fácil dissolução.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/1856087d1635cd200631840cc12b46426c21f1d9/image/nuclear-rush.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +141,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,16 +183,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,17 +560,44 @@
       <c r="E2">
         <v>62.9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{737F03FE-29A0-48B5-81DF-B0DDD31AAD76}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{396124CD-FFB5-454C-802A-F5D28AE28177}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -556,7 +606,7 @@
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B2:B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -569,7 +619,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,58 +634,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +693,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\site-titan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4A339-F4D9-4624-9E40-D2CB85AB7C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42578C-D0FE-4A2D-8FC6-C5EBCA7DC7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -53,15 +53,9 @@
     <t>colageno</t>
   </si>
   <si>
-    <t>Colágeno Hidrolisado Max Titanium 120g</t>
-  </si>
-  <si>
     <t>Fortalece unhas e cabelos, contribui para a firmeza e elasticidade da pele, ajuda na saúde das articulações e cartilagens.</t>
   </si>
   <si>
-    <t>Mais Vendido</t>
-  </si>
-  <si>
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
     <t>Colágeno</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/1856087d1635cd200631840cc12b46426c21f1d9/image/colagen.jpeg</t>
-  </si>
-  <si>
     <t>Pré-Treino Nuclear Rush – 100g</t>
   </si>
   <si>
@@ -122,7 +113,103 @@
     <t>Suplemento energético com cafeína e taurina que aumenta energia, foco e resistência, reduzindo fadiga e oferecendo sabor agradável e fácil dissolução.</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/1856087d1635cd200631840cc12b46426c21f1d9/image/nuclear-rush.jpeg</t>
+    <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
+  </si>
+  <si>
+    <t>Colágeno Hidrolisado Max Titanium - 120g</t>
+  </si>
+  <si>
+    <t>Melhora o desempenho físico, estimula crescimento de massa magra, reduz a fadiga muscular, acelera a recuperação, puro e sem sabor.</t>
+  </si>
+  <si>
+    <t>Aumenta a força, mais desempenho físico, promove massa magra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
+  </si>
+  <si>
+    <t>Suplemento Completo com 22 vitaminas e minerais para atender as necessidades do corpo.</t>
+  </si>
+  <si>
+    <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
+  </si>
+  <si>
+    <t>Hipercalórico Max Titanium – 3kg</t>
+  </si>
+  <si>
+    <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
+  </si>
+  <si>
+    <t>Whey 100% Pure Max Titanium – 900g</t>
+  </si>
+  <si>
+    <t>O Whey 100% da Max Titanium é um suplemento proteico à base de proteína concentrada do soro do leite (WPC).</t>
+  </si>
+  <si>
+    <t>Preço baixo!</t>
+  </si>
+  <si>
+    <t>Mais vendido!</t>
+  </si>
+  <si>
+    <t>21g de proteína, Alta digestibilidade , Auxilia no ganho de massa magra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619Kcal por dose, Energia para treinos intensos, Auxilia no ganho de massa muscular, </t>
+  </si>
+  <si>
+    <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SKKA RED Thermo Xploudmix é um termogênico potente, com 200mg de cafeína por cápsula e 400mg por dose (2 cápsulas). </t>
+  </si>
+  <si>
+    <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
+  </si>
+  <si>
+    <t>3Whey Protein Force Up – 900g</t>
+  </si>
+  <si>
+    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
+  </si>
+  <si>
+    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
+  </si>
+  <si>
+    <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
+  </si>
+  <si>
+    <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
+  </si>
+  <si>
+    <t>24g de proteina,Baixo carbo, Rapida absorção</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-colagen.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-nuclear-rush.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-creatina-hardcore.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-dux-multivitaminico.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-mass-titanium.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-max-100-whey.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-red-thermo.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-red-whey.jpeg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-3whey-protein.jpeg</t>
   </si>
 </sst>
 </file>
@@ -187,12 +274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -496,22 +586,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,22 +642,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>62.9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -575,28 +665,202 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>65.900000000000006</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>89.9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>32</v>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>129.9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>129.9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>38.9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>87.9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>94.9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{737F03FE-29A0-48B5-81DF-B0DDD31AAD76}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{396124CD-FFB5-454C-802A-F5D28AE28177}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{85800EF2-79AE-43A3-B336-EF5523FE4090}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{23B0D96D-A2C6-4FEB-B272-1BF7219A88A0}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{EC74E7AE-F466-4B6D-8D85-80A636E25A0E}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{CA1036DD-7E80-43AD-BA2A-FE954E13FBB3}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{6E004268-C491-4FC8-AE8E-5F275DB6E208}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{C5F9B02C-6BB6-47F3-A437-AEBD69836B68}"/>
+    <hyperlink ref="F9" r:id="rId9" xr:uid="{A127F12C-E1D6-4A75-83A4-CC1DAFD33B68}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -606,7 +870,7 @@
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B3</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -634,58 +898,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E42578C-D0FE-4A2D-8FC6-C5EBCA7DC7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C034BD-8F2C-4A0E-B2DA-B1774933EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
+    <sheet name="Cupons" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -210,13 +211,61 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-3whey-protein.jpeg</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Desconto</t>
+  </si>
+  <si>
+    <t>Validade</t>
+  </si>
+  <si>
+    <t>UsosMaximos</t>
+  </si>
+  <si>
+    <t>UsosAtuais</t>
+  </si>
+  <si>
+    <t>ValorMinimo</t>
+  </si>
+  <si>
+    <t>Categorias</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>TITAN10</t>
+  </si>
+  <si>
+    <t>porcentagem</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>SUPER15</t>
+  </si>
+  <si>
+    <t>valor_fixo</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>FRETEGRATIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +282,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -282,6 +339,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -963,4 +1023,160 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EFFDA-D0F5-4974-B482-440814043FBE}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{68339EE9-521F-4485-8AF1-07876753F402}">
+      <formula1>"porcentagem,valor_fixo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{AAF4931F-DCC1-483A-9269-23F55E9F893C}">
+      <formula1>"VERDADEIRO,FALSO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7B0B01E-CB41-4B88-BEB0-33A7D62DA529}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C034BD-8F2C-4A0E-B2DA-B1774933EE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57E609-8D11-4069-84AC-884436846470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
     <sheet name="Cupons" sheetId="3" r:id="rId3"/>
+    <sheet name="Promocoes" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -246,19 +247,85 @@
     <t>porcentagem</t>
   </si>
   <si>
-    <t>2025-12-31</t>
-  </si>
-  <si>
     <t>SUPER15</t>
   </si>
   <si>
     <t>valor_fixo</t>
   </si>
   <si>
-    <t>2025-11-30</t>
-  </si>
-  <si>
     <t>FRETEGRATIS</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Aplicacao</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>IDs Produtos</t>
+  </si>
+  <si>
+    <t>Tipo Desconto</t>
+  </si>
+  <si>
+    <t>Valor Desconto</t>
+  </si>
+  <si>
+    <t>Data Inicio</t>
+  </si>
+  <si>
+    <t>Data Fim</t>
+  </si>
+  <si>
+    <t>Badge Texto</t>
+  </si>
+  <si>
+    <t>Banner Texto</t>
+  </si>
+  <si>
+    <t>Promoção X</t>
+  </si>
+  <si>
+    <t>Descrição da Promoção X</t>
+  </si>
+  <si>
+    <t>101,102,103</t>
+  </si>
+  <si>
+    <t>Eletrônicos</t>
+  </si>
+  <si>
+    <t>unitário</t>
+  </si>
+  <si>
+    <t>Oferta Especial</t>
+  </si>
+  <si>
+    <t>Super Desconto!</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Promoção Y</t>
+  </si>
+  <si>
+    <t>Descrição da Promoção Y</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>Aproveite Agora</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -331,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -342,6 +409,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EFFDA-D0F5-4974-B482-440814043FBE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1109,7 @@
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1085,8 +1156,8 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>74</v>
+      <c r="D2" s="5">
+        <v>46022</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1106,16 +1177,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>77</v>
+      <c r="D3" s="5">
+        <v>45991</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1132,16 +1203,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>74</v>
+      <c r="D4" s="5">
+        <v>46022</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1157,7 +1228,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{68339EE9-521F-4485-8AF1-07876753F402}">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
@@ -1168,7 +1239,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7B0B01E-CB41-4B88-BEB0-33A7D62DA529}">
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
@@ -1179,4 +1250,142 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17879B21-6026-4625-BD94-A24E84026B55}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45839</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45869</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="6">
+        <v>201.202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45853</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45868</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B57E609-8D11-4069-84AC-884436846470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521177A1-EFE3-4A5D-AE0A-85DDD104D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28665" yWindow="765" windowWidth="23010" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>colageno</t>
   </si>
   <si>
-    <t>Fortalece unhas e cabelos, contribui para a firmeza e elasticidade da pele, ajuda na saúde das articulações e cartilagens.</t>
-  </si>
-  <si>
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
   </si>
   <si>
@@ -79,12 +76,6 @@
     <t>Pré-Treino</t>
   </si>
   <si>
-    <t>bcaa</t>
-  </si>
-  <si>
-    <t>BCAA</t>
-  </si>
-  <si>
     <t>termogenico</t>
   </si>
   <si>
@@ -109,30 +100,15 @@
     <t>Pré-Treino Nuclear Rush – 100g</t>
   </si>
   <si>
-    <t>Energia explosiva, foco extremo, treino insano.</t>
-  </si>
-  <si>
-    <t>Suplemento energético com cafeína e taurina que aumenta energia, foco e resistência, reduzindo fadiga e oferecendo sabor agradável e fácil dissolução.</t>
-  </si>
-  <si>
     <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
   </si>
   <si>
     <t>Colágeno Hidrolisado Max Titanium - 120g</t>
   </si>
   <si>
-    <t>Melhora o desempenho físico, estimula crescimento de massa magra, reduz a fadiga muscular, acelera a recuperação, puro e sem sabor.</t>
-  </si>
-  <si>
-    <t>Aumenta a força, mais desempenho físico, promove massa magra.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
   </si>
   <si>
-    <t>Suplemento Completo com 22 vitaminas e minerais para atender as necessidades do corpo.</t>
-  </si>
-  <si>
     <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
   </si>
   <si>
@@ -145,27 +121,15 @@
     <t>Whey 100% Pure Max Titanium – 900g</t>
   </si>
   <si>
-    <t>O Whey 100% da Max Titanium é um suplemento proteico à base de proteína concentrada do soro do leite (WPC).</t>
-  </si>
-  <si>
     <t>Preço baixo!</t>
   </si>
   <si>
     <t>Mais vendido!</t>
   </si>
   <si>
-    <t>21g de proteína, Alta digestibilidade , Auxilia no ganho de massa magra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619Kcal por dose, Energia para treinos intensos, Auxilia no ganho de massa muscular, </t>
-  </si>
-  <si>
     <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
   </si>
   <si>
-    <t xml:space="preserve">O SKKA RED Thermo Xploudmix é um termogênico potente, com 200mg de cafeína por cápsula e 400mg por dose (2 cápsulas). </t>
-  </si>
-  <si>
     <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
   </si>
   <si>
@@ -187,33 +151,6 @@
     <t>24g de proteina,Baixo carbo, Rapida absorção</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-colagen.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-nuclear-rush.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-creatina-hardcore.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-dux-multivitaminico.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-mass-titanium.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-max-100-whey.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-red-thermo.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-red-whey.jpeg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/titan-3whey-protein.jpeg</t>
-  </si>
-  <si>
     <t>Codigo</t>
   </si>
   <si>
@@ -326,6 +263,84 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619Kcal por dose, Treinos Intensos, Ganho de Massa, </t>
+  </si>
+  <si>
+    <t>Força, Desempenho, Massa Magra</t>
+  </si>
+  <si>
+    <t>Energia explosiva, foco extremo, treino insano</t>
+  </si>
+  <si>
+    <t>Alta digestibilidade , Auxilia no ganho de massa magra</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/combo.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/mult.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg</t>
+  </si>
+  <si>
+    <t>Creatina + Ultra Mass Force</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplemento ideal para fortalecer cabelos e unhas, manter a firmeza e elasticidade da pele e cuidar das articulações. Fórmula leve e de fácil preparo.	</t>
+  </si>
+  <si>
+    <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatina pura e sem sabor que melhora força, desempenho físico e ganho de massa magra. Reduz a fadiga e acelera a recuperação muscular.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
+  </si>
+  <si>
+    <t>Termogênico intenso com 400mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
+  </si>
+  <si>
+    <t>Combinação poderosa para quem busca força e ganho de massa acelerado: creatina pura com hipercalórico de alto desempenho.</t>
+  </si>
+  <si>
+    <t>Força + Massa, ideal para bulking, energia,  recuperação muscular</t>
   </si>
 </sst>
 </file>
@@ -344,6 +359,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -398,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -413,6 +429,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -717,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,22 +792,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E2">
         <v>62.9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,22 +815,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>65.900000000000006</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -819,25 +838,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>89.9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -845,45 +864,45 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>129.9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -891,25 +910,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>129.9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -917,22 +936,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>38.9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -940,22 +959,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>87.9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,22 +982,42 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>94.9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -992,16 +1031,23 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{6E004268-C491-4FC8-AE8E-5F275DB6E208}"/>
     <hyperlink ref="F10" r:id="rId8" xr:uid="{C5F9B02C-6BB6-47F3-A437-AEBD69836B68}"/>
     <hyperlink ref="F9" r:id="rId9" xr:uid="{A127F12C-E1D6-4A75-83A4-CC1DAFD33B68}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{35B30EC3-BA52-452C-A3AC-A7BD0998B521}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0945C2CF-FB87-4CBE-80C8-59239AADD356}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65FA8D4F-74A7-41DA-BDD8-85E99C860103}">
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
+          <xm:sqref>B11 H4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1011,15 +1057,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,68 +1073,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1100,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EFFDA-D0F5-4974-B482-440814043FBE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,39 +1168,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1177,10 +1226,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>15</v>
@@ -1203,10 +1252,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1242,7 +1291,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7B0B01E-CB41-4B88-BEB0-33A7D62DA529}">
           <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$9</xm:f>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H4</xm:sqref>
         </x14:dataValidation>
@@ -1256,7 +1305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17879B21-6026-4625-BD94-A24E84026B55}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1270,37 +1319,37 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1308,25 +1357,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I2" s="5">
         <v>45839</v>
@@ -1335,13 +1384,13 @@
         <v>45869</v>
       </c>
       <c r="K2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1349,25 +1398,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D3" s="6">
         <v>201.202</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="G3">
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I3" s="5">
         <v>45853</v>
@@ -1376,13 +1425,13 @@
         <v>45868</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521177A1-EFE3-4A5D-AE0A-85DDD104D18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BF937-9618-4C8D-B9F9-3CF4F1D502E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28665" yWindow="765" windowWidth="23010" windowHeight="11580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28665" yWindow="765" windowWidth="23010" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1012,9 @@
       </c>
       <c r="D11" t="s">
         <v>104</v>
+      </c>
+      <c r="E11">
+        <v>159.9</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>89</v>
@@ -1149,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EFFDA-D0F5-4974-B482-440814043FBE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1BF937-9618-4C8D-B9F9-3CF4F1D502E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6594B8E-161B-46FD-9BBE-6AAD70C7341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28665" yWindow="765" windowWidth="23010" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
     <sheet name="Categorias" sheetId="2" r:id="rId2"/>
     <sheet name="Cupons" sheetId="3" r:id="rId3"/>
-    <sheet name="Promocoes" sheetId="4" r:id="rId4"/>
+    <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -193,78 +193,6 @@
     <t>FRETEGRATIS</t>
   </si>
   <si>
-    <t>Descricao</t>
-  </si>
-  <si>
-    <t>Aplicacao</t>
-  </si>
-  <si>
-    <t>kit</t>
-  </si>
-  <si>
-    <t>IDs Produtos</t>
-  </si>
-  <si>
-    <t>Tipo Desconto</t>
-  </si>
-  <si>
-    <t>Valor Desconto</t>
-  </si>
-  <si>
-    <t>Data Inicio</t>
-  </si>
-  <si>
-    <t>Data Fim</t>
-  </si>
-  <si>
-    <t>Badge Texto</t>
-  </si>
-  <si>
-    <t>Banner Texto</t>
-  </si>
-  <si>
-    <t>Promoção X</t>
-  </si>
-  <si>
-    <t>Descrição da Promoção X</t>
-  </si>
-  <si>
-    <t>101,102,103</t>
-  </si>
-  <si>
-    <t>Eletrônicos</t>
-  </si>
-  <si>
-    <t>unitário</t>
-  </si>
-  <si>
-    <t>Oferta Especial</t>
-  </si>
-  <si>
-    <t>Super Desconto!</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>Promoção Y</t>
-  </si>
-  <si>
-    <t>Descrição da Promoção Y</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>valor</t>
-  </si>
-  <si>
-    <t>Aproveite Agora</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -341,6 +269,48 @@
   </si>
   <si>
     <t>Força + Massa, ideal para bulking, energia,  recuperação muscular</t>
+  </si>
+  <si>
+    <t>Depoimento</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Amanda Rocha</t>
+  </si>
+  <si>
+    <t>Comprei o Whey da Titan por indicação de um amigo.</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>@amanda_fit</t>
+  </si>
+  <si>
+    <t>Felipe Almeida</t>
+  </si>
+  <si>
+    <t>Os preços são justos e a qualidade é realmente boa.</t>
+  </si>
+  <si>
+    <t>@felipe.treino</t>
+  </si>
+  <si>
+    <t>Carla Menezes</t>
+  </si>
+  <si>
+    <t>Atendimento excelente, tiraram todas as minhas dúvidas no WhatsApp.</t>
+  </si>
+  <si>
+    <t>Boa Vista</t>
+  </si>
+  <si>
+    <t>@carla_menezes_fit</t>
   </si>
 </sst>
 </file>
@@ -428,11 +398,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -738,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -795,13 +763,13 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>62.9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -821,16 +789,16 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>65.900000000000006</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -844,19 +812,19 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E4">
         <v>89.9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -870,13 +838,13 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -899,10 +867,10 @@
         <v>129.9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,19 +884,19 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>129.9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,13 +910,13 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>38.9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
@@ -971,7 +939,7 @@
         <v>87.9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
         <v>38</v>
@@ -994,7 +962,7 @@
         <v>94.9</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
@@ -1005,22 +973,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>159.9</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1134,13 +1102,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1306,135 +1274,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17879B21-6026-4625-BD94-A24E84026B55}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="B1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45839</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45869</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="6">
-        <v>201.202</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45853</v>
-      </c>
-      <c r="J3" s="5">
-        <v>45868</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Desktop\AnaliseDados\Sites\titan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6594B8E-161B-46FD-9BBE-6AAD70C7341B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,25 @@
     <sheet name="Cupons" sheetId="3" r:id="rId3"/>
     <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -55,100 +62,247 @@
     <t>colageno</t>
   </si>
   <si>
+    <t>Colágeno Hidrolisado Max Titanium - 120g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplemento ideal para fortalecer cabelos e unhas, manter a firmeza e elasticidade da pele e cuidar das articulações. Fórmula leve e de fácil preparo.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg</t>
+  </si>
+  <si>
+    <t>Preço baixo!</t>
+  </si>
+  <si>
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
   </si>
   <si>
+    <t>pre-treino</t>
+  </si>
+  <si>
+    <t>Pré-Treino Nuclear Rush – 100g</t>
+  </si>
+  <si>
+    <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg</t>
+  </si>
+  <si>
+    <t>Energia explosiva, foco extremo, treino insano</t>
+  </si>
+  <si>
+    <t>creatina</t>
+  </si>
+  <si>
+    <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatina pura e sem sabor que melhora força, desempenho físico e ganho de massa magra. Reduz a fadiga e acelera a recuperação muscular.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg</t>
+  </si>
+  <si>
+    <t>Mais vendido!</t>
+  </si>
+  <si>
+    <t>Força, Desempenho, Massa Magra</t>
+  </si>
+  <si>
+    <t>multivitaminico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0148.jpg</t>
+  </si>
+  <si>
+    <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
+  </si>
+  <si>
+    <t>hipercalorico</t>
+  </si>
+  <si>
+    <t>Hipercalórico Max Titanium – 3kg</t>
+  </si>
+  <si>
+    <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619Kcal por dose, Treinos Intensos, Ganho de Massa, </t>
+  </si>
+  <si>
     <t>whey</t>
   </si>
   <si>
+    <t>Whey 100% Pure Max Titanium – 900g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg</t>
+  </si>
+  <si>
+    <t>Alta digestibilidade , Auxilia no ganho de massa magra</t>
+  </si>
+  <si>
+    <t>termogenico</t>
+  </si>
+  <si>
+    <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
+  </si>
+  <si>
+    <t>Termogênico intenso com 400mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg</t>
+  </si>
+  <si>
+    <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
+  </si>
+  <si>
+    <t>3Whey Protein Force Up – 900g</t>
+  </si>
+  <si>
+    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
+  </si>
+  <si>
+    <t>EM FALTA!</t>
+  </si>
+  <si>
+    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
+  </si>
+  <si>
+    <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
+  </si>
+  <si>
+    <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg</t>
+  </si>
+  <si>
+    <t>24g de proteina,Baixo carbo, Rapida absorção</t>
+  </si>
+  <si>
+    <t>Creatina Ultra FTW - (MAIOR ABSORÇÃO)- 300g</t>
+  </si>
+  <si>
+    <t>Creatina FTW Ultra: fórmula combinada que potencializa a absorção e otimiza seus ganhos</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0147.jpg</t>
+  </si>
+  <si>
+    <t>EM ALTA!</t>
+  </si>
+  <si>
+    <t>Creatina Probiotica 100% Pura - 300g</t>
+  </si>
+  <si>
+    <t>Pura, eficaz e com a qualidade de quem é referência em suplementação</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0163.jpg</t>
+  </si>
+  <si>
+    <t>Multivitaminico - Absolut Nutrition - 60 cápsulas</t>
+  </si>
+  <si>
+    <t>Multivitamínico completo com vitaminas e minerais essenciais para energia, imunidade e bem-estar diário</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0149.jpg</t>
+  </si>
+  <si>
+    <t>Vitaminas de A -Z, Minerais essenciais</t>
+  </si>
+  <si>
+    <t>Whey Gourmet - VK Suplementos - 900g</t>
+  </si>
+  <si>
+    <t>Whey Gourmet VK: sabor incrível com alta concentração de proteína.</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0155.jpg</t>
+  </si>
+  <si>
+    <t>25g de proteina, 5.3g de BCAA's</t>
+  </si>
+  <si>
+    <t>Hipercalórico Ultramass Bluster – 3kg</t>
+  </si>
+  <si>
+    <t>Calorias e nutrientes na medida certa para resultados expressivos.</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0173.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572Kcal por dose, Possui Creatina, 23g de proteina </t>
+  </si>
+  <si>
+    <t>Creatina Shark PRO 100% Pura - 300g</t>
+  </si>
+  <si>
+    <t>Creatina Shark Pro: energia explosiva, força máxima e performance elevada</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0151.jpg</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>KIT TITAN 01 Creatina + Whey + Cafeina</t>
+  </si>
+  <si>
+    <t>Combinação poderosa para quem busca força e energia: creatina, whey e cafeina para alto desempenho.</t>
+  </si>
+  <si>
+    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/Imagem%20do%20WhatsApp%20de%202025-07-02%20%C3%A0(s)%2011.43.54_3be42aef.jpg</t>
+  </si>
+  <si>
+    <t>ganho de massa, queima de gordura, energia,  recuperação muscular</t>
+  </si>
+  <si>
     <t>Whey Protein</t>
   </si>
   <si>
-    <t>creatina</t>
-  </si>
-  <si>
     <t>Creatina</t>
   </si>
   <si>
-    <t>pre-treino</t>
-  </si>
-  <si>
     <t>Pré-Treino</t>
   </si>
   <si>
-    <t>termogenico</t>
-  </si>
-  <si>
     <t>Termogênico</t>
   </si>
   <si>
-    <t>multivitaminico</t>
-  </si>
-  <si>
     <t>Multivitamínico</t>
   </si>
   <si>
-    <t>hipercalorico</t>
-  </si>
-  <si>
     <t>Hipercalórico</t>
   </si>
   <si>
     <t>Colágeno</t>
   </si>
   <si>
-    <t>Pré-Treino Nuclear Rush – 100g</t>
-  </si>
-  <si>
-    <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
-  </si>
-  <si>
-    <t>Colágeno Hidrolisado Max Titanium - 120g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
-  </si>
-  <si>
-    <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
-  </si>
-  <si>
-    <t>Hipercalórico Max Titanium – 3kg</t>
-  </si>
-  <si>
-    <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
-  </si>
-  <si>
-    <t>Whey 100% Pure Max Titanium – 900g</t>
-  </si>
-  <si>
-    <t>Preço baixo!</t>
-  </si>
-  <si>
-    <t>Mais vendido!</t>
-  </si>
-  <si>
-    <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
-  </si>
-  <si>
-    <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
-  </si>
-  <si>
-    <t>3Whey Protein Force Up – 900g</t>
-  </si>
-  <si>
-    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
-  </si>
-  <si>
-    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
-  </si>
-  <si>
-    <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
-  </si>
-  <si>
-    <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
-  </si>
-  <si>
-    <t>24g de proteina,Baixo carbo, Rapida absorção</t>
+    <t>Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Codigo</t>
@@ -178,13 +332,13 @@
     <t>Ativo</t>
   </si>
   <si>
-    <t>TITAN10</t>
+    <t>TITAN05</t>
   </si>
   <si>
     <t>porcentagem</t>
   </si>
   <si>
-    <t>SUPER15</t>
+    <t>JULHO10</t>
   </si>
   <si>
     <t>valor_fixo</t>
@@ -193,84 +347,6 @@
     <t>FRETEGRATIS</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619Kcal por dose, Treinos Intensos, Ganho de Massa, </t>
-  </si>
-  <si>
-    <t>Força, Desempenho, Massa Magra</t>
-  </si>
-  <si>
-    <t>Energia explosiva, foco extremo, treino insano</t>
-  </si>
-  <si>
-    <t>Alta digestibilidade , Auxilia no ganho de massa magra</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/combo.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/mult.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg</t>
-  </si>
-  <si>
-    <t>Creatina + Ultra Mass Force</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suplemento ideal para fortalecer cabelos e unhas, manter a firmeza e elasticidade da pele e cuidar das articulações. Fórmula leve e de fácil preparo.	</t>
-  </si>
-  <si>
-    <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatina pura e sem sabor que melhora força, desempenho físico e ganho de massa magra. Reduz a fadiga e acelera a recuperação muscular.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
-  </si>
-  <si>
-    <t>Termogênico intenso com 400mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
-  </si>
-  <si>
-    <t>Combinação poderosa para quem busca força e ganho de massa acelerado: creatina pura com hipercalórico de alto desempenho.</t>
-  </si>
-  <si>
-    <t>Força + Massa, ideal para bulking, energia,  recuperação muscular</t>
-  </si>
-  <si>
     <t>Depoimento</t>
   </si>
   <si>
@@ -280,63 +356,175 @@
     <t>Instagram</t>
   </si>
   <si>
-    <t>Amanda Rocha</t>
-  </si>
-  <si>
-    <t>Comprei o Whey da Titan por indicação de um amigo.</t>
+    <t>Milena Moda</t>
+  </si>
+  <si>
+    <t>O pré treino (Nuclear rush) é sensacional, primeira vez tomando e meus treinos evoluiram MUITO!! Tenho mais força, energia para chegar até o limite, foi a melhor compra que eu fiz esse mês. Pretendo continuaar comprando</t>
   </si>
   <si>
     <t>Manaus</t>
   </si>
   <si>
-    <t>@amanda_fit</t>
-  </si>
-  <si>
-    <t>Felipe Almeida</t>
-  </si>
-  <si>
-    <t>Os preços são justos e a qualidade é realmente boa.</t>
-  </si>
-  <si>
-    <t>@felipe.treino</t>
-  </si>
-  <si>
-    <t>Carla Menezes</t>
-  </si>
-  <si>
-    <t>Atendimento excelente, tiraram todas as minhas dúvidas no WhatsApp.</t>
-  </si>
-  <si>
-    <t>Boa Vista</t>
-  </si>
-  <si>
-    <t>@carla_menezes_fit</t>
+    <t>@milenaamoda_</t>
+  </si>
+  <si>
+    <t>Kézia Beatriz</t>
+  </si>
+  <si>
+    <t>Bom dia, Antonio!
+Olha, eu sou chaata pra tomar whey, tenho impressão que quase todos tem um gosto de sabão no final 😂😂 Mas esse é uma delícia, de verdade, parece muito com um sorvetinho de creme que eu gosto. Muito bom 10/10</t>
+  </si>
+  <si>
+    <t>@keziacoelhoimoveis</t>
+  </si>
+  <si>
+    <t>TITAN</t>
+  </si>
+  <si>
+    <t>AGORA É SUA VEZ! Mande seu feedback em nossa chat do WhatsApp e apareça aqui também!</t>
+  </si>
+  <si>
+    <t>@titansuplemmanaus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,19 +532,240 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -379,44 +788,336 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,61 +1399,61 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="109.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="9.42857142857143" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="109.428571428571" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="60.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="255.714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -760,25 +1461,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>62.9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>58</v>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -786,397 +1487,537 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>65.900000000000006</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>89.9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>69</v>
+      <c r="F5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>129.9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E7">
-        <v>129.9</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>139.9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E8">
-        <v>38.9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E9">
         <v>87.9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>94.9</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11">
+        <v>59.99</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>89.9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14">
+        <v>99.9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>110</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H15" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>69.9</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E11">
-        <v>159.9</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="H17" s="8" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H11 H12 H16 B17">
+      <formula1>Categorias!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B13 B14 B15 B16 B2:B10">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{737F03FE-29A0-48B5-81DF-B0DDD31AAD76}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{396124CD-FFB5-454C-802A-F5D28AE28177}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{85800EF2-79AE-43A3-B336-EF5523FE4090}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{23B0D96D-A2C6-4FEB-B272-1BF7219A88A0}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{EC74E7AE-F466-4B6D-8D85-80A636E25A0E}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{CA1036DD-7E80-43AD-BA2A-FE954E13FBB3}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{6E004268-C491-4FC8-AE8E-5F275DB6E208}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{C5F9B02C-6BB6-47F3-A437-AEBD69836B68}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{A127F12C-E1D6-4A75-83A4-CC1DAFD33B68}"/>
-    <hyperlink ref="F11" r:id="rId10" xr:uid="{35B30EC3-BA52-452C-A3AC-A7BD0998B521}"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
+    <hyperlink ref="F9" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0945C2CF-FB87-4CBE-80C8-59239AADD356}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65FA8D4F-74A7-41DA-BDD8-85E99C860103}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>B11 H4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3EFFDA-D0F5-4974-B482-440814043FBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
         <v>46022</v>
       </c>
       <c r="E2">
@@ -1195,18 +2036,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45991</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45869</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1215,23 +2056,23 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>46022</v>
       </c>
       <c r="E4">
@@ -1248,103 +2089,95 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{68339EE9-521F-4485-8AF1-07876753F402}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{AAF4931F-DCC1-483A-9269-23F55E9F893C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C7B0B01E-CB41-4B88-BEB0-33A7D62DA529}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17879B21-6026-4625-BD94-A24E84026B55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0148.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0148.jpg</t>
   </si>
   <si>
     <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
@@ -203,7 +203,7 @@
     <t>Creatina FTW Ultra: fórmula combinada que potencializa a absorção e otimiza seus ganhos</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0147.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0147.jpg</t>
   </si>
   <si>
     <t>EM ALTA!</t>
@@ -215,7 +215,7 @@
     <t>Pura, eficaz e com a qualidade de quem é referência em suplementação</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0163.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0163.jpg</t>
   </si>
   <si>
     <t>Multivitaminico - Absolut Nutrition - 60 cápsulas</t>
@@ -224,7 +224,7 @@
     <t>Multivitamínico completo com vitaminas e minerais essenciais para energia, imunidade e bem-estar diário</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0149.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0149.jpg</t>
   </si>
   <si>
     <t>Vitaminas de A -Z, Minerais essenciais</t>
@@ -236,7 +236,7 @@
     <t>Whey Gourmet VK: sabor incrível com alta concentração de proteína.</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0155.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0155.jpg</t>
   </si>
   <si>
     <t>25g de proteina, 5.3g de BCAA's</t>
@@ -248,7 +248,7 @@
     <t>Calorias e nutrientes na medida certa para resultados expressivos.</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0173.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0173.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">572Kcal por dose, Possui Creatina, 23g de proteina </t>
@@ -260,7 +260,7 @@
     <t>Creatina Shark Pro: energia explosiva, força máxima e performance elevada</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/IMG-20250705-WA0151.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0151.jpg</t>
   </si>
   <si>
     <t>combo</t>
@@ -272,7 +272,7 @@
     <t>Combinação poderosa para quem busca força e energia: creatina, whey e cafeina para alto desempenho.</t>
   </si>
   <si>
-    <t>https://github.com/AntonioPaixaoo/titan/blob/main/image/Imagem%20do%20WhatsApp%20de%202025-07-02%20%C3%A0(s)%2011.43.54_3be42aef.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-02%20%C3%A0(s)%2011.43.54_3be42aef.jpg</t>
   </si>
   <si>
     <t>ganho de massa, queima de gordura, energia,  recuperação muscular</t>
@@ -332,19 +332,19 @@
     <t>Ativo</t>
   </si>
   <si>
+    <t>JULHO10</t>
+  </si>
+  <si>
+    <t>valor_fixo</t>
+  </si>
+  <si>
+    <t>FRETEGRATIS</t>
+  </si>
+  <si>
     <t>TITAN05</t>
   </si>
   <si>
     <t>porcentagem</t>
-  </si>
-  <si>
-    <t>JULHO10</t>
-  </si>
-  <si>
-    <t>valor_fixo</t>
-  </si>
-  <si>
-    <t>FRETEGRATIS</t>
   </si>
   <si>
     <t>Depoimento</t>
@@ -1032,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1046,9 +1046,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1408,7 +1405,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1570,7 +1567,7 @@
       <c r="F6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1787,7 +1784,7 @@
       <c r="F15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1836,16 +1833,16 @@
       <c r="F17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H11 H12 H16 B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H16 B17 H11:H12">
       <formula1>Categorias!$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B13 B14 B15 B16 B2:B10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1870,7 +1867,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1959,13 +1956,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
@@ -2015,22 +2012,19 @@
         <v>101</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45869</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
-        <v>46022</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
       <c r="G2">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -2041,22 +2035,22 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
-        <v>45869</v>
+        <v>46022</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2064,39 +2058,196 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
       <c r="C4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>46022</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="4:4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B2:B3">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H2:H3">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I2:I3">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2171,7 +2322,6 @@
       <c r="B4" t="s">
         <v>116</v>
       </c>
-      <c r="C4"/>
       <c r="D4" t="s">
         <v>117</v>
       </c>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ABC82-51E0-40B0-9F9E-DB2F52BA28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -13,24 +19,11 @@
     <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +47,6 @@
   </si>
   <si>
     <t>Benefícios</t>
-  </si>
-  <si>
-    <t>Detalhes</t>
   </si>
   <si>
     <t>colageno</t>
@@ -385,19 +375,19 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Inativo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,345 +417,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -788,249 +449,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1041,70 +463,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1396,29 +775,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.85714285714286" customWidth="1"/>
-    <col min="2" max="2" width="9.42857142857143" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="109.428571428571" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="139" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="8.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="60.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="255.714285714286" customWidth="1"/>
+    <col min="6" max="6" width="66.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1447,432 +826,492 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>62.9</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3">
         <v>52</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>89.9</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
       <c r="E5">
         <v>75</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
       </c>
       <c r="E6">
         <v>129.9</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
       </c>
       <c r="E7">
         <v>139.9</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
       </c>
       <c r="E8">
         <v>32</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
         <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>47</v>
       </c>
       <c r="E9">
         <v>87.9</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
       </c>
       <c r="E10">
         <v>94.9</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:8">
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
       </c>
       <c r="E11">
         <v>59.99</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
       </c>
       <c r="E12">
         <v>89.9</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12"/>
+        <v>60</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>63</v>
       </c>
       <c r="E13">
         <v>52</v>
       </c>
       <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
         <v>64</v>
       </c>
-      <c r="H13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
       </c>
       <c r="E14">
         <v>99.9</v>
       </c>
       <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" t="s">
         <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
       </c>
       <c r="E15">
         <v>110</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E16">
-        <v>69.9</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" customHeight="1" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
       </c>
       <c r="E17">
         <v>175</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>81</v>
+      <c r="I17" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H16 B17 H11:H12">
-      <formula1>Categorias!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B16">
-      <formula1>Categorias!$A$2:$A$8</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17" xr:uid="{2005AFB0-5708-40FF-B48E-C2BFCB4F3CAB}">
+      <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
-    <hyperlink ref="F6" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
-    <hyperlink ref="F7" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
-    <hyperlink ref="F8" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
-    <hyperlink ref="F10" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
-    <hyperlink ref="F9" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4 H16 B17 H11:H12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1880,82 +1319,80 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
         <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1964,52 +1401,52 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>101</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2032,10 +1469,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2058,10 +1495,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2079,7 +1516,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -2087,10 +1524,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2108,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2116,10 +1553,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2137,7 +1574,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -2145,10 +1582,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2166,7 +1603,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -2174,10 +1611,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2195,7 +1632,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -2203,10 +1640,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>104</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2224,110 +1661,116 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="1:9">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="1:9">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="1:9">
       <c r="D12" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B2:B3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 H5 H6 H7 H8 H9 H10 H11 H12 H2:H3">
-      <formula1>Categorias!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I2:I3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I2:I3" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4 H5 H6 H7 H8 H9 H10 H11 H12 H2:H3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1">
+      <c r="A3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>116</v>
       </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliabe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4ABC82-51E0-40B0-9F9E-DB2F52BA28AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636184F-E445-4D4B-9464-072CB22CB0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Inativo</t>
+  </si>
+  <si>
+    <t>Sabor</t>
+  </si>
+  <si>
+    <t>Morango;Chocolate</t>
   </si>
 </sst>
 </file>
@@ -781,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -792,15 +798,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="139" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="66.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="139" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -811,25 +818,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -840,25 +850,28 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>62.9</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -868,23 +881,23 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>52</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -894,26 +907,26 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>89.9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -923,23 +936,23 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>75</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -949,23 +962,23 @@
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>129.9</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -975,26 +988,26 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>139.9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1004,23 +1017,23 @@
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1030,26 +1043,26 @@
       <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>46</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>87.9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1059,23 +1072,23 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>51</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>94.9</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1085,26 +1098,26 @@
       <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>59.99</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>57</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1114,23 +1127,23 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>89.9</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1140,23 +1153,23 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>52</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>64</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1166,23 +1179,23 @@
       <c r="C14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>99.9</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1192,23 +1205,23 @@
       <c r="C15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>70</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>110</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1218,26 +1231,26 @@
       <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>74</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>69.900000000000006</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>24</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1247,37 +1260,37 @@
       <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>78</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>175</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>98</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I17" xr:uid="{2005AFB0-5708-40FF-B48E-C2BFCB4F3CAB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{2005AFB0-5708-40FF-B48E-C2BFCB4F3CAB}">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1287,7 +1300,7 @@
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H4 H16 B17 H11:H12</xm:sqref>
+          <xm:sqref>I4 I16 B17 I11:I12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliabe\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636184F-E445-4D4B-9464-072CB22CB0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -19,11 +13,24 @@
     <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +41,9 @@
     <t>Nome</t>
   </si>
   <si>
+    <t>Sabor</t>
+  </si>
+  <si>
     <t>Descrição</t>
   </si>
   <si>
@@ -49,57 +59,72 @@
     <t>Benefícios</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>creatina</t>
+  </si>
+  <si>
+    <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatina pura e sem sabor que melhora força, desempenho físico e ganho de massa magra. Reduz a fadiga e acelera a recuperação muscular.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg</t>
+  </si>
+  <si>
+    <t>Mais vendido!</t>
+  </si>
+  <si>
+    <t>Força, Desempenho, Massa Magra</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Creatina Monohidratada MAX Titanium 100% pura - 300g</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-11%20%C3%A0(s)%2019.22.02_ccc9b32f.jpg</t>
+  </si>
+  <si>
+    <t>pre-treino</t>
+  </si>
+  <si>
+    <t>Pré-Treino Nuclear Rush – 100g</t>
+  </si>
+  <si>
+    <t>Limão;Guaraná;Morango</t>
+  </si>
+  <si>
+    <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg</t>
+  </si>
+  <si>
+    <t>Energia explosiva, foco extremo, treino insano</t>
+  </si>
+  <si>
     <t>colageno</t>
   </si>
   <si>
     <t>Colágeno Hidrolisado Max Titanium - 120g</t>
   </si>
   <si>
+    <t>Tangerina</t>
+  </si>
+  <si>
     <t xml:space="preserve">Suplemento ideal para fortalecer cabelos e unhas, manter a firmeza e elasticidade da pele e cuidar das articulações. Fórmula leve e de fácil preparo.	</t>
   </si>
   <si>
     <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg</t>
   </si>
   <si>
-    <t>Preço baixo!</t>
-  </si>
-  <si>
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
   </si>
   <si>
-    <t>pre-treino</t>
-  </si>
-  <si>
-    <t>Pré-Treino Nuclear Rush – 100g</t>
-  </si>
-  <si>
-    <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg</t>
-  </si>
-  <si>
-    <t>Energia explosiva, foco extremo, treino insano</t>
-  </si>
-  <si>
-    <t>creatina</t>
-  </si>
-  <si>
-    <t>Creatina Monohidratada Integralmedica 100% pura - 300g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatina pura e sem sabor que melhora força, desempenho físico e ganho de massa magra. Reduz a fadiga e acelera a recuperação muscular.	</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg</t>
-  </si>
-  <si>
-    <t>Mais vendido!</t>
-  </si>
-  <si>
-    <t>Força, Desempenho, Massa Magra</t>
-  </si>
-  <si>
     <t>multivitaminico</t>
   </si>
   <si>
@@ -121,6 +146,9 @@
     <t>Hipercalórico Max Titanium – 3kg</t>
   </si>
   <si>
+    <t>Morango;Chocolate</t>
+  </si>
+  <si>
     <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
   </si>
   <si>
@@ -136,6 +164,9 @@
     <t>Whey 100% Pure Max Titanium – 900g</t>
   </si>
   <si>
+    <t>Morango;Chocolate;Balnilha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
   </si>
   <si>
@@ -160,6 +191,9 @@
     <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
   </si>
   <si>
+    <t>Inativo</t>
+  </si>
+  <si>
     <t>3Whey Protein Force Up – 900g</t>
   </si>
   <si>
@@ -169,15 +203,15 @@
     <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
   </si>
   <si>
-    <t>EM FALTA!</t>
-  </si>
-  <si>
     <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
   </si>
   <si>
     <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
   </si>
   <si>
+    <t>Chocolate Milk Shake</t>
+  </si>
+  <si>
     <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
   </si>
   <si>
@@ -259,6 +293,9 @@
     <t>KIT TITAN 01 Creatina + Whey + Cafeina</t>
   </si>
   <si>
+    <t>Whey de Morango;Whey de Chocolate;Whey de Balnilha</t>
+  </si>
+  <si>
     <t>Combinação poderosa para quem busca força e energia: creatina, whey e cafeina para alto desempenho.</t>
   </si>
   <si>
@@ -317,9 +354,6 @@
   </si>
   <si>
     <t>Categorias</t>
-  </si>
-  <si>
-    <t>Ativo</t>
   </si>
   <si>
     <t>JULHO10</t>
@@ -375,25 +409,19 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Inativo</t>
-  </si>
-  <si>
-    <t>Sabor</t>
-  </si>
-  <si>
-    <t>Morango;Chocolate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,16 +451,345 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -455,10 +812,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -469,27 +1065,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,30 +1420,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="139" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="139" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="66.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="66.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="63" customWidth="1"/>
+    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -818,25 +1457,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -844,62 +1483,62 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>89.9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>62.9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F3">
+        <v>89.9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -907,28 +1546,28 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>89.9</v>
+        <v>52</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -936,395 +1575,434 @@
       <c r="C5" t="s">
         <v>26</v>
       </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>62.9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H5"/>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>129.9</v>
+        <v>75</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>139.9</v>
+        <v>129.9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>32</v>
+        <v>139.9</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F9">
-        <v>87.9</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10">
-        <v>94.9</v>
+        <v>87.9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" t="s">
         <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>59.99</v>
+        <v>94.9</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F12">
-        <v>89.9</v>
+        <v>59.99</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
+        <v>89.9</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F14">
-        <v>99.9</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15">
-        <v>110</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>99.9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>110</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17">
+        <v>69.9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17">
+    </row>
+    <row r="18" customHeight="1" spans="1:10">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
         <v>175</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>98</v>
+      <c r="G18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J17" xr:uid="{2005AFB0-5708-40FF-B48E-C2BFCB4F3CAB}">
+  <sortState ref="A2:J17">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B17">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J9 J4:J8 J10:J18">
       <formula1>"Ativo,Inativo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I12:I13">
+      <formula1>Categorias!$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G5" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
+    <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
+    <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>I4 I16 B17 I11:I12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B16</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1332,134 +2010,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
       <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1482,10 +2162,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1508,10 +2188,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1529,7 +2209,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1537,10 +2217,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1558,7 +2238,7 @@
         <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1566,10 +2246,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1587,7 +2267,7 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -1595,10 +2275,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1616,7 +2296,7 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -1624,10 +2304,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1645,7 +2325,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -1653,10 +2333,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1674,116 +2354,136 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="4:4">
       <c r="D12" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B5 B6 B7 B8 B9 B10 B11 B12 B2:B3" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B12">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I5 I6 I7 I8 I9 I10 I11 I12 I2:I3" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 H2:H9 H11:H12">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I2:I9 I11:I12">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>H4 H5 H6 H7 H8 H9 H10 H11 H12 H2:H3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="6780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -362,6 +362,9 @@
     <t>valor_fixo</t>
   </si>
   <si>
+    <t>FALSO</t>
+  </si>
+  <si>
     <t>FRETEGRATIS</t>
   </si>
   <si>
@@ -369,6 +372,12 @@
   </si>
   <si>
     <t>porcentagem</t>
+  </si>
+  <si>
+    <t>ALLE</t>
+  </si>
+  <si>
+    <t>BATTAY</t>
   </si>
   <si>
     <t>Depoimento</t>
@@ -1056,7 +1065,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,6 +1075,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1428,8 +1438,8 @@
   <sheetPr/>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1447,34 +1457,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1494,7 +1504,7 @@
       <c r="F2">
         <v>89.9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
@@ -1523,7 +1533,7 @@
       <c r="F3">
         <v>89.9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -1555,7 +1565,7 @@
       <c r="F4">
         <v>52</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
@@ -1584,10 +1594,9 @@
       <c r="F5">
         <v>62.9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>30</v>
       </c>
@@ -1611,7 +1620,7 @@
       <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
@@ -1640,7 +1649,7 @@
       <c r="F7">
         <v>129.9</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1669,7 +1678,7 @@
       <c r="F8">
         <v>139.9</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
@@ -1698,7 +1707,7 @@
       <c r="F9">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I9" t="s">
@@ -1724,10 +1733,9 @@
       <c r="F10">
         <v>87.9</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10"/>
       <c r="I10" t="s">
         <v>57</v>
       </c>
@@ -1754,7 +1762,7 @@
       <c r="F11">
         <v>94.9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
       <c r="I11" t="s">
@@ -1780,7 +1788,7 @@
       <c r="F12">
         <v>59.99</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
@@ -1790,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1809,7 +1817,7 @@
       <c r="F13">
         <v>89.9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="I13" t="s">
@@ -1893,7 +1901,7 @@
       <c r="F16">
         <v>110</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1919,7 +1927,7 @@
       <c r="F17">
         <v>69.9</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H17" t="s">
@@ -1951,14 +1959,14 @@
       <c r="F18">
         <v>175</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1966,14 +1974,14 @@
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I12:I13">
+      <formula1>Categorias!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2 J3 J9 J4:J8 J10:J18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
       <formula1>"Ativo,Inativo"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I12:I13">
-      <formula1>Categorias!$A$2:$A$9</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2003,10 +2011,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2088,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2156,13 +2164,13 @@
       <c r="G2">
         <v>70</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
+      <c r="I2" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
@@ -2182,16 +2190,16 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
+      <c r="I3" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2211,16 +2219,16 @@
       <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
+      <c r="I4" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2240,16 +2248,16 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
+      <c r="I5" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2269,16 +2277,16 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
+      <c r="I6" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2298,16 +2306,16 @@
       <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
+      <c r="I7" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2327,16 +2335,16 @@
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
+      <c r="I8" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2356,16 +2364,16 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
+      <c r="I9" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2385,25 +2393,72 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" t="b">
+      <c r="I10" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" s="4"/>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B2:B9 B11:B12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B2:B10">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 H2:H9 H11:H12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12 H2:H10">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10 I2:I9 I11:I12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I12 I2:I10">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2434,52 +2489,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BCCD8D-0E8A-4918-89B1-BE0EDDABFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780" activeTab="2"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -13,24 +19,11 @@
     <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -418,19 +411,16 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
+  </si>
+  <si>
+    <t>GOMES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,345 +450,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -821,251 +482,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1074,71 +496,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1430,12 +808,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -1445,46 +823,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="139" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="66.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="66.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="63" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1504,7 +882,7 @@
       <c r="F2">
         <v>89.9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
@@ -1517,7 +895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:10">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1533,7 +911,7 @@
       <c r="F3">
         <v>89.9</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H3" t="s">
@@ -1565,7 +943,7 @@
       <c r="F4">
         <v>52</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
@@ -1594,7 +972,7 @@
       <c r="F5">
         <v>62.9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
@@ -1620,7 +998,7 @@
       <c r="F6">
         <v>75</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
@@ -1649,7 +1027,7 @@
       <c r="F7">
         <v>129.9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1678,7 +1056,7 @@
       <c r="F8">
         <v>139.9</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
@@ -1707,7 +1085,7 @@
       <c r="F9">
         <v>32</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="I9" t="s">
@@ -1733,7 +1111,7 @@
       <c r="F10">
         <v>87.9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I10" t="s">
@@ -1762,7 +1140,7 @@
       <c r="F11">
         <v>94.9</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>61</v>
       </c>
       <c r="I11" t="s">
@@ -1788,7 +1166,7 @@
       <c r="F12">
         <v>59.99</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
@@ -1817,7 +1195,7 @@
       <c r="F13">
         <v>89.9</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>69</v>
       </c>
       <c r="I13" t="s">
@@ -1901,7 +1279,7 @@
       <c r="F16">
         <v>110</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -1925,9 +1303,9 @@
         <v>83</v>
       </c>
       <c r="F17">
-        <v>69.9</v>
-      </c>
-      <c r="G17" s="7" t="s">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>84</v>
       </c>
       <c r="H17" t="s">
@@ -1940,7 +1318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1959,10 +1337,10 @@
       <c r="F18">
         <v>175</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>90</v>
       </c>
       <c r="J18" t="s">
@@ -1970,55 +1348,65 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
     <sortCondition ref="A2"/>
   </sortState>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I12:I13">
-      <formula1>Categorias!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B17">
-      <formula1>Categorias!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
-    <hyperlink ref="G7" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
-    <hyperlink ref="G9" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
-    <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5 I17 B18 I12:I13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2026,7 +1414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2034,7 +1422,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +1430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2050,7 +1438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2058,7 +1446,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2066,7 +1454,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2087,30 +1475,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2164,7 +1550,7 @@
       <c r="G2">
         <v>70</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2190,7 +1576,7 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2219,7 +1605,7 @@
       <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2248,7 +1634,7 @@
       <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2277,7 +1663,7 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2306,7 +1692,7 @@
       <c r="H7" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2335,7 +1721,7 @@
       <c r="H8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2364,7 +1750,7 @@
       <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2393,7 +1779,7 @@
       <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2419,12 +1805,11 @@
       <c r="G11">
         <v>50</v>
       </c>
-      <c r="H11"/>
       <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2450,41 +1835,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 B12 B2:B10">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11 H12 H2:H10">
-      <formula1>Categorias!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11 I12 I2:I10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2512,7 +1930,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -2538,7 +1956,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BCCD8D-0E8A-4918-89B1-BE0EDDABFE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7FFE4-EB32-4A68-A91C-14FEE701CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
-  </si>
-  <si>
-    <t>GOMES</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1480,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1837,7 +1834,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -1852,7 +1849,7 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -1878,7 +1875,7 @@
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H12</xm:sqref>
+          <xm:sqref>H2:H13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A7FFE4-EB32-4A68-A91C-14FEE701CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92380107-A8C2-4A65-9F83-74F503387FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
+  </si>
+  <si>
+    <t>GOMES</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1483,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1834,7 +1837,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agroam Fiscal\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92380107-A8C2-4A65-9F83-74F503387FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -19,11 +13,24 @@
     <sheet name="Depoimentos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -88,7 +95,7 @@
     <t>Pré-Treino Nuclear Rush – 100g</t>
   </si>
   <si>
-    <t>Limão;Guaraná;Morango</t>
+    <t>Uva;Guaraná;Morango</t>
   </si>
   <si>
     <t>Potente pré-treino com cafeína e taurina que proporciona energia explosiva, foco intenso e mais resistência durante os treinos mais puxados.</t>
@@ -184,21 +191,21 @@
     <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
   </si>
   <si>
+    <t>3Whey Protein Force Up – 900g</t>
+  </si>
+  <si>
+    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
+  </si>
+  <si>
+    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
+  </si>
+  <si>
     <t>Inativo</t>
   </si>
   <si>
-    <t>3Whey Protein Force Up – 900g</t>
-  </si>
-  <si>
-    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
-  </si>
-  <si>
-    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
-  </si>
-  <si>
     <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
   </si>
   <si>
@@ -280,13 +287,19 @@
     <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0151.jpg</t>
   </si>
   <si>
+    <t>Creatina FTW 100% Pura - 500g</t>
+  </si>
+  <si>
+    <t>Creatina FTW 100% pura – 3g por dose de monohidrato micronizado, sem aditivos. Força, volume celular e desempenho real no treino.</t>
+  </si>
+  <si>
     <t>combo</t>
   </si>
   <si>
     <t>KIT TITAN 01 Creatina + Whey + Cafeina</t>
   </si>
   <si>
-    <t>Whey de Morango;Whey de Chocolate;Whey de Balnilha</t>
+    <t>Whey de Chocolate;Whey de Balnilha</t>
   </si>
   <si>
     <t>Combinação poderosa para quem busca força e energia: creatina, whey e cafeina para alto desempenho.</t>
@@ -371,6 +384,9 @@
   </si>
   <si>
     <t>BATTAY</t>
+  </si>
+  <si>
+    <t>GOMES</t>
   </si>
   <si>
     <t>Depoimento</t>
@@ -411,16 +427,19 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
-  </si>
-  <si>
-    <t>GOMES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,16 +469,345 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -482,10 +830,249 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -496,37 +1083,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -808,30 +1431,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="139" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="66.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="66.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
     <col min="9" max="9" width="63" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1083,7 +1706,7 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>51</v>
@@ -1092,7 +1715,7 @@
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1103,22 +1726,22 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
       </c>
       <c r="F10">
         <v>87.9</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>57</v>
-      </c>
-      <c r="J10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1176,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1303,7 +1926,7 @@
         <v>83</v>
       </c>
       <c r="F17">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>84</v>
@@ -1318,87 +1941,108 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
+    <row r="18" customHeight="1" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18"/>
+      <c r="E18" t="s">
         <v>86</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F18">
+        <v>80</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:10">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>87</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="F18">
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
         <v>175</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
+      <c r="G19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+  <sortState ref="A2:J19">
     <sortCondition ref="A2"/>
   </sortState>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I19 I12:I13">
+      <formula1>Categorias!$A$2:$A$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B2:B17">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19 J2:J18">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G5" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
+    <hyperlink ref="G7" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
+    <hyperlink ref="G8" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
+    <hyperlink ref="G9" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
+    <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
+    <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>I5 I17 B18 I12:I13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B17</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1406,123 +2050,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -1530,10 +2176,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1551,15 +2197,15 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1577,15 +2223,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1606,15 +2252,15 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1635,15 +2281,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1664,15 +2310,15 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1693,15 +2339,15 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1722,15 +2368,15 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1751,15 +2397,15 @@
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1780,15 +2426,15 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1811,10 +2457,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -1837,10 +2483,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1862,100 +2508,94 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
+      <formula1>Categorias!$A$2:$A$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
-          <x14:formula1>
-            <xm:f>Categorias!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H13</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" t="s">
-        <v>121</v>
-      </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Creatina FTW 100% pura – 3g por dose de monohidrato micronizado, sem aditivos. Força, volume celular e desempenho real no treino.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-20%20%C3%A0(s)%2018.27.49_a603ef60.jpg</t>
   </si>
   <si>
     <t>combo</t>
@@ -1439,8 +1442,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1951,7 +1954,6 @@
       <c r="C18" t="s">
         <v>85</v>
       </c>
-      <c r="D18"/>
       <c r="E18" t="s">
         <v>86</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>80</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -1976,26 +1978,26 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F19">
         <v>175</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19"/>
       <c r="I19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -2012,7 +2014,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B2:B17">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19 J2:J18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2055,7 +2057,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2063,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2071,7 +2073,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2079,7 +2081,7 @@
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2087,7 +2089,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2095,7 +2097,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2103,18 +2105,18 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2147,28 +2149,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -2176,10 +2178,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2197,15 +2199,15 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2223,15 +2225,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2252,15 +2254,15 @@
         <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2281,15 +2283,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2310,15 +2312,15 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2339,15 +2341,15 @@
         <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2368,15 +2370,15 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2397,15 +2399,15 @@
         <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2426,15 +2428,15 @@
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" t="s">
         <v>116</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2457,10 +2459,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2483,10 +2485,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2546,52 +2548,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -442,7 +442,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +468,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -934,150 +942,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1091,6 +1099,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1960,7 +1969,7 @@
       <c r="F18">
         <v>80</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H18" t="s">
@@ -1996,7 +2005,7 @@
         <v>92</v>
       </c>
       <c r="H19"/>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>93</v>
       </c>
       <c r="J19" t="s">
@@ -2027,6 +2036,7 @@
     <hyperlink ref="G9" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
     <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
     <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
+    <hyperlink ref="G18" r:id="rId9" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-20%20%C3%A0(s)%2018.27.49_a603ef60.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -86,7 +86,46 @@
     <t>Creatina Monohidratada MAX Titanium 100% pura - 300g</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-11%20%C3%A0(s)%2019.22.02_ccc9b32f.jpg</t>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Creatina%20max.jpg</t>
+  </si>
+  <si>
+    <t>Creatina Ultra FTW - (MAIOR ABSORÇÃO)- 300g</t>
+  </si>
+  <si>
+    <t>Creatina FTW Ultra: fórmula combinada que potencializa a absorção e otimiza seus ganhos</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0147.jpg</t>
+  </si>
+  <si>
+    <t>EM ALTA!</t>
+  </si>
+  <si>
+    <t>Creatina Probiotica 100% Pura - 300g</t>
+  </si>
+  <si>
+    <t>Pura, eficaz e com a qualidade de quem é referência em suplementação</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0163.jpg</t>
+  </si>
+  <si>
+    <t>Creatina Shark PRO 100% Pura - 300g</t>
+  </si>
+  <si>
+    <t>Creatina Shark Pro: energia explosiva, força máxima e performance elevada</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0151.jpg</t>
+  </si>
+  <si>
+    <t>Creatina FTW 100% Pura - 500g</t>
+  </si>
+  <si>
+    <t>Creatina FTW 100% pura – 3g por dose de monohidrato micronizado, sem aditivos. Força, volume celular e desempenho real no treino.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Creatina%20FTW.jpg</t>
   </si>
   <si>
     <t>pre-treino</t>
@@ -107,6 +146,162 @@
     <t>Energia explosiva, foco extremo, treino insano</t>
   </si>
   <si>
+    <t>whey</t>
+  </si>
+  <si>
+    <t>Whey Pote 100% Pure Max Titanium – 900g</t>
+  </si>
+  <si>
+    <t>Balnilha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg</t>
+  </si>
+  <si>
+    <t>Alta digestibilidade , Auxilia no ganho de massa magra</t>
+  </si>
+  <si>
+    <t>3Whey Protein Force Up – 900g</t>
+  </si>
+  <si>
+    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
+  </si>
+  <si>
+    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
+  </si>
+  <si>
+    <t>Inativo</t>
+  </si>
+  <si>
+    <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
+  </si>
+  <si>
+    <t>Chocolate Milk Shake</t>
+  </si>
+  <si>
+    <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg</t>
+  </si>
+  <si>
+    <t>24g de proteina,Baixo carbo, Rapida absorção</t>
+  </si>
+  <si>
+    <t>Whey Gourmet - VK Suplementos - 900g</t>
+  </si>
+  <si>
+    <t>Morango;Chocolate;Balnilha</t>
+  </si>
+  <si>
+    <t>Whey Gourmet VK: sabor incrível com alta concentração de proteína.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0155.jpg</t>
+  </si>
+  <si>
+    <t>25g de proteina, 5.3g de BCAA's</t>
+  </si>
+  <si>
+    <t>Whey Refil 100% Pure Max Titanium – 900g</t>
+  </si>
+  <si>
+    <t>Morango;Chocolate</t>
+  </si>
+  <si>
+    <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Whey%20refil%20max.jpg</t>
+  </si>
+  <si>
+    <t>NOVIDADE!</t>
+  </si>
+  <si>
+    <t>hipercalorico</t>
+  </si>
+  <si>
+    <t>Hipercalórico Max Titanium – 3kg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619Kcal por dose, Treinos Intensos, Ganho de Massa, </t>
+  </si>
+  <si>
+    <t>Hipercalórico Ultramass Bluster – 3kg</t>
+  </si>
+  <si>
+    <t>Calorias e nutrientes na medida certa para resultados expressivos.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0173.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572Kcal por dose, Possui Creatina, 23g de proteina </t>
+  </si>
+  <si>
+    <t>termogenico</t>
+  </si>
+  <si>
+    <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
+  </si>
+  <si>
+    <t>Termogênico intenso com 400mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg</t>
+  </si>
+  <si>
+    <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
+  </si>
+  <si>
+    <t>Cafeina Bluster - 60 Cápsulas</t>
+  </si>
+  <si>
+    <t>Termogênico intenso com 150mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Cafeina%20bluster.jpg</t>
+  </si>
+  <si>
+    <t>Ganho de massa, Energia, Recuperação muscular</t>
+  </si>
+  <si>
+    <t>multivitaminico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0148.jpg</t>
+  </si>
+  <si>
+    <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
+  </si>
+  <si>
+    <t>Multivitaminico - Absolut Nutrition - 60 cápsulas</t>
+  </si>
+  <si>
+    <t>Multivitamínico completo com vitaminas e minerais essenciais para energia, imunidade e bem-estar diário</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0149.jpg</t>
+  </si>
+  <si>
+    <t>Vitaminas de A -Z, Minerais essenciais</t>
+  </si>
+  <si>
     <t>colageno</t>
   </si>
   <si>
@@ -125,177 +320,6 @@
     <t>Firmeza da pele, Saúde articular, Baixas calorias</t>
   </si>
   <si>
-    <t>multivitaminico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multivitamínico DUX - 90 cápsulas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suplemento  completo com 22 vitaminas e minerais essenciais para imunidade, disposição e saúde geral. Ideal para complementar a alimentação diária.	</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0148.jpg</t>
-  </si>
-  <si>
-    <t>Vitamina A + C + D + E, Complexo B, Calcio, Zinco, Magnesio</t>
-  </si>
-  <si>
-    <t>hipercalorico</t>
-  </si>
-  <si>
-    <t>Hipercalórico Max Titanium – 3kg</t>
-  </si>
-  <si>
-    <t>Morango;Chocolate</t>
-  </si>
-  <si>
-    <t>Suplemento formulado com uma porção de carboidratos e proteínas, fornecece calorias na sua busca de ganho de massa.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619Kcal por dose, Treinos Intensos, Ganho de Massa, </t>
-  </si>
-  <si>
-    <t>whey</t>
-  </si>
-  <si>
-    <t>Whey 100% Pure Max Titanium – 900g</t>
-  </si>
-  <si>
-    <t>Morango;Chocolate;Balnilha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whey concentrado de alta qualidade, ideal para quem busca recuperação muscular rápida e ganho de massa magra com excelente absorção.	</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg</t>
-  </si>
-  <si>
-    <t>Alta digestibilidade , Auxilia no ganho de massa magra</t>
-  </si>
-  <si>
-    <t>termogenico</t>
-  </si>
-  <si>
-    <t>SKKA RED Thermo Xploudmix – 60 cápsulas</t>
-  </si>
-  <si>
-    <t>Termogênico intenso com 400mg de cafeína por dose. Estimula o metabolismo, queima de gordura e aumento de foco e energia durante o dia.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg</t>
-  </si>
-  <si>
-    <t>Mais Foco, Mais Energia, Acelera o metabolismo</t>
-  </si>
-  <si>
-    <t>3Whey Protein Force Up – 900g</t>
-  </si>
-  <si>
-    <t>Este suplemento combina três tipos de proteínas do soro do leite (concentrada, isolada e hidrolisada) para uma absorção gradual e completa.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg</t>
-  </si>
-  <si>
-    <t>32g de proteína, Aminoácidos essenciais, Ganho de Massa</t>
-  </si>
-  <si>
-    <t>Inativo</t>
-  </si>
-  <si>
-    <t>Whey Isoprotein Gold – Red Nutrition – 900g</t>
-  </si>
-  <si>
-    <t>Chocolate Milk Shake</t>
-  </si>
-  <si>
-    <t>O Whey Isoprotein Gold da Red Nutrition é um suplemento à base de proteína isolada do soro do leite (WPI), com alto valor biológico e rápida absorção.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg</t>
-  </si>
-  <si>
-    <t>24g de proteina,Baixo carbo, Rapida absorção</t>
-  </si>
-  <si>
-    <t>Creatina Ultra FTW - (MAIOR ABSORÇÃO)- 300g</t>
-  </si>
-  <si>
-    <t>Creatina FTW Ultra: fórmula combinada que potencializa a absorção e otimiza seus ganhos</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0147.jpg</t>
-  </si>
-  <si>
-    <t>EM ALTA!</t>
-  </si>
-  <si>
-    <t>Creatina Probiotica 100% Pura - 300g</t>
-  </si>
-  <si>
-    <t>Pura, eficaz e com a qualidade de quem é referência em suplementação</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0163.jpg</t>
-  </si>
-  <si>
-    <t>Multivitaminico - Absolut Nutrition - 60 cápsulas</t>
-  </si>
-  <si>
-    <t>Multivitamínico completo com vitaminas e minerais essenciais para energia, imunidade e bem-estar diário</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0149.jpg</t>
-  </si>
-  <si>
-    <t>Vitaminas de A -Z, Minerais essenciais</t>
-  </si>
-  <si>
-    <t>Whey Gourmet - VK Suplementos - 900g</t>
-  </si>
-  <si>
-    <t>Whey Gourmet VK: sabor incrível com alta concentração de proteína.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0155.jpg</t>
-  </si>
-  <si>
-    <t>25g de proteina, 5.3g de BCAA's</t>
-  </si>
-  <si>
-    <t>Hipercalórico Ultramass Bluster – 3kg</t>
-  </si>
-  <si>
-    <t>Calorias e nutrientes na medida certa para resultados expressivos.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0173.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">572Kcal por dose, Possui Creatina, 23g de proteina </t>
-  </si>
-  <si>
-    <t>Creatina Shark PRO 100% Pura - 300g</t>
-  </si>
-  <si>
-    <t>Creatina Shark Pro: energia explosiva, força máxima e performance elevada</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0151.jpg</t>
-  </si>
-  <si>
-    <t>Creatina FTW 100% Pura - 500g</t>
-  </si>
-  <si>
-    <t>Creatina FTW 100% pura – 3g por dose de monohidrato micronizado, sem aditivos. Força, volume celular e desempenho real no treino.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-20%20%C3%A0(s)%2018.27.49_a603ef60.jpg</t>
-  </si>
-  <si>
     <t>combo</t>
   </si>
   <si>
@@ -314,6 +338,39 @@
     <t>ganho de massa, queima de gordura, energia,  recuperação muscular</t>
   </si>
   <si>
+    <t>KIT TITAN 02 Creatina + Whey</t>
+  </si>
+  <si>
+    <t>Whey VK 25g de proteina e creatina Shark Pro 100% pura.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Whey%20VK%20e%20creatina%20shark.jpg</t>
+  </si>
+  <si>
+    <t>KIT TITAN 03 Creatina + Pré-Treino</t>
+  </si>
+  <si>
+    <t>Nucler Morango;Nuclear Uva;Nuclear Guaraná</t>
+  </si>
+  <si>
+    <t>Nuclear Rush e creatina Shark Pro 100% pura.</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Creatina%20shark%20e%20nuclear.jpg</t>
+  </si>
+  <si>
+    <t>Energia, Recuperação muscular, Foco</t>
+  </si>
+  <si>
+    <t>KIT Max Titanium 01</t>
+  </si>
+  <si>
+    <t>Whey de Chocolate;Whey de Balnilha,;Whey de Morango</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Whey%20max%20e%20creatina%20max.jpg</t>
+  </si>
+  <si>
     <t>Whey Protein</t>
   </si>
   <si>
@@ -390,6 +447,9 @@
   </si>
   <si>
     <t>GOMES</t>
+  </si>
+  <si>
+    <t>MAH</t>
   </si>
   <si>
     <t>Depoimento</t>
@@ -1449,10 +1509,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1561,28 +1621,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4">
+        <v>59.99</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
-        <v>52</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -1590,28 +1650,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>89.9</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>62.9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>16</v>
@@ -1619,25 +1676,28 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>69.9</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1645,28 +1705,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>129.9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1674,31 +1734,28 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>139.9</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1706,25 +1763,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>139.9</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1732,54 +1795,57 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>87.9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>55</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <v>94.9</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1787,28 +1853,29 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>59.99</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
+        <v>99.9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1816,25 +1883,31 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>89.9</v>
+        <v>129.9</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1842,25 +1915,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F14">
-        <v>52</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>73</v>
+        <v>129.9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1868,28 +1944,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>99.9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1897,28 +1973,25 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F16">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1926,28 +1999,29 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>69.9</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1955,28 +2029,25 @@
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>75</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
         <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18">
-        <v>80</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1984,59 +2055,212 @@
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="H19"/>
+      <c r="I19" t="s">
         <v>89</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19">
-        <v>175</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="20" customFormat="1" spans="1:10">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20">
+        <v>62.9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:10">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>175</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:10">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22">
+        <v>135.9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:10">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23">
+        <v>105.9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:10">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>199.9</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J19">
+  <sortState ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I19 I12:I13">
       <formula1>Categorias!$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B2:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B21 B22 B23 B24 B2:B17">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20 J21 J22 J23 J24 J2:J19">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
+    <hyperlink ref="G20" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
+    <hyperlink ref="G8" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
     <hyperlink ref="G2" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
-    <hyperlink ref="G7" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
-    <hyperlink ref="G8" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
-    <hyperlink ref="G9" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
+    <hyperlink ref="G14" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
+    <hyperlink ref="G9" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
+    <hyperlink ref="G16" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
     <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
     <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
-    <hyperlink ref="G18" r:id="rId9" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Imagem%20do%20WhatsApp%20de%202025-07-20%20%C3%A0(s)%2018.27.49_a603ef60.jpg"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2064,10 +2288,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2075,58 +2299,58 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2138,10 +2362,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2159,28 +2383,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -2188,10 +2412,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2209,15 +2433,15 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2235,15 +2459,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2261,18 +2485,18 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2293,15 +2517,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2319,18 +2543,18 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2348,18 +2572,18 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2377,18 +2601,18 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2406,18 +2630,18 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2435,18 +2659,18 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2469,10 +2693,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2495,10 +2719,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2519,15 +2743,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2:B13">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H2:H13">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14 I2:I13">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2558,52 +2808,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
   <si>
     <t>ID</t>
   </si>
@@ -393,9 +393,6 @@
   </si>
   <si>
     <t>Combo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Codigo</t>
@@ -1512,7 +1509,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1621,7 +1618,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -1795,7 +1792,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -1803,7 +1800,6 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
-      <c r="D10"/>
       <c r="E10" t="s">
         <v>45</v>
       </c>
@@ -1813,7 +1809,6 @@
       <c r="G10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H10"/>
       <c r="I10" t="s">
         <v>47</v>
       </c>
@@ -1823,7 +1818,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1843,7 +1838,6 @@
       <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1847,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -1873,7 +1867,6 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>58</v>
       </c>
@@ -1883,7 +1876,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -1915,7 +1908,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -1944,7 +1937,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -1973,7 +1966,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -1999,7 +1992,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2007,7 +2000,6 @@
       <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="D17"/>
       <c r="E17" t="s">
         <v>78</v>
       </c>
@@ -2029,7 +2021,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -2055,7 +2047,7 @@
     </row>
     <row r="19" customFormat="1" spans="1:10">
       <c r="A19">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>81</v>
@@ -2083,7 +2075,7 @@
     </row>
     <row r="20" customFormat="1" spans="1:10">
       <c r="A20">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
@@ -2113,7 +2105,7 @@
     </row>
     <row r="21" customFormat="1" spans="1:10">
       <c r="A21">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>96</v>
@@ -2143,7 +2135,7 @@
     </row>
     <row r="22" customFormat="1" spans="1:10">
       <c r="A22">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
@@ -2175,7 +2167,7 @@
     </row>
     <row r="23" customFormat="1" spans="1:10">
       <c r="A23">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -2207,7 +2199,7 @@
     </row>
     <row r="24" customFormat="1" spans="1:10">
       <c r="A24">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>96</v>
@@ -2245,10 +2237,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I19 I12:I13">
       <formula1>Categorias!$A$2:$A$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B20 B21 B22 B23 B24 B2:B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B2:B17 B19:B21 B23:B24">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J20 J21 J22 J23 J24 J2:J19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J24">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2270,13 +2262,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
@@ -2342,15 +2334,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2372,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -2412,10 +2401,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -2433,15 +2422,15 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -2459,15 +2448,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
         <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2488,15 +2477,15 @@
         <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
         <v>134</v>
-      </c>
-      <c r="B5" t="s">
-        <v>135</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -2517,15 +2506,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
         <v>134</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2546,15 +2535,15 @@
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
         <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>135</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2575,15 +2564,15 @@
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
         <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2604,15 +2593,15 @@
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2633,15 +2622,15 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2662,15 +2651,15 @@
         <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2693,10 +2682,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2719,10 +2708,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2745,10 +2734,10 @@
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -2771,13 +2760,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14 B2:B13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14 H2:H13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
       <formula1>Categorias!$A$2:$A$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14 I2:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2808,52 +2797,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>144</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:4">
       <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
         <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
         <v>150</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTONIO.PAIXAO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C8716-8672-4831-B30C-531A83267528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -487,19 +493,16 @@
   </si>
   <si>
     <t>@titansuplemmanaus</t>
+  </si>
+  <si>
+    <t>ANNA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,345 +540,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -898,249 +572,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1151,71 +586,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1500,30 +892,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="15.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="34.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
     <col min="5" max="5" width="139" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="66.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="13.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="66.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="63" customWidth="1"/>
-    <col min="10" max="10" width="11.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1685,7 +1077,7 @@
         <v>27</v>
       </c>
       <c r="F6">
-        <v>69.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>28</v>
@@ -2019,7 +1411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:10">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2045,7 +1437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2055,7 +1447,6 @@
       <c r="C19" t="s">
         <v>86</v>
       </c>
-      <c r="D19"/>
       <c r="E19" t="s">
         <v>87</v>
       </c>
@@ -2065,7 +1456,6 @@
       <c r="G19" t="s">
         <v>88</v>
       </c>
-      <c r="H19"/>
       <c r="I19" t="s">
         <v>89</v>
       </c>
@@ -2073,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:10">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2095,7 +1485,6 @@
       <c r="G20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>95</v>
       </c>
@@ -2103,7 +1492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:10">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2125,7 +1514,6 @@
       <c r="G21" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H21"/>
       <c r="I21" s="8" t="s">
         <v>101</v>
       </c>
@@ -2133,7 +1521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:10">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2165,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:10">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2197,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:10">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2230,45 +1618,55 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
     <sortCondition ref="A2"/>
   </sortState>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I17 B18 I19 I12:I13">
-      <formula1>Categorias!$A$2:$A$9</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22 B2:B17 B19:B21 B23:B24">
-      <formula1>Categorias!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J24">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J24" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Ativo,Inativo"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/col.jpg"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/rsh.jpg"/>
-    <hyperlink ref="G2" r:id="rId3" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/cre.jpg"/>
-    <hyperlink ref="G14" r:id="rId4" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/max-titan.jpg"/>
-    <hyperlink ref="G9" r:id="rId5" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/dux.jpg"/>
-    <hyperlink ref="G16" r:id="rId6" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/term.jpg"/>
-    <hyperlink ref="G11" r:id="rId7" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/whey.jpg"/>
-    <hyperlink ref="G10" r:id="rId8" display="https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/3-whey.jpg"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5 I17 B18 I19 I12:I13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B22 B2:B17 B19:B21 B23:B24</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
@@ -2344,30 +1742,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="12.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
-    <col min="4" max="4" width="10.7142857142857" customWidth="1"/>
-    <col min="5" max="5" width="13.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="10.8571428571429" customWidth="1"/>
-    <col min="7" max="7" width="12.7142857142857" customWidth="1"/>
-    <col min="8" max="8" width="10.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="12.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2732,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2758,41 +2154,74 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>46022</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B14">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"porcentagem,valor_fixo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
-      <formula1>Categorias!$A$2:$A$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"VERDADEIRO,FALSO"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Categorias!$A$2:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7142857142857" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="66" customWidth="1"/>
-    <col min="3" max="3" width="9.14285714285714" customWidth="1"/>
-    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +2249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -2846,7 +2275,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
-  <headerFooter/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/produtos.xlsx
+++ b/produtos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTONIO.PAIXAO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C8716-8672-4831-B30C-531A83267528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0F391F-88DE-4662-BEF5-B852FF97A642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="153">
   <si>
     <t>ID</t>
   </si>
@@ -125,13 +125,7 @@
     <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/IMG-20250705-WA0151.jpg</t>
   </si>
   <si>
-    <t>Creatina FTW 100% Pura - 500g</t>
-  </si>
-  <si>
     <t>Creatina FTW 100% pura – 3g por dose de monohidrato micronizado, sem aditivos. Força, volume celular e desempenho real no treino.</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Creatina%20FTW.jpg</t>
   </si>
   <si>
     <t>pre-treino</t>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t>ANNA</t>
+  </si>
+  <si>
+    <t>Black Friday</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/AntonioPaixaoo/titan/refs/heads/main/image/Black%20Creatina%20FTW.jpg</t>
   </si>
 </sst>
 </file>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1094,28 +1094,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>80</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
@@ -1123,28 +1123,31 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>52</v>
+        <v>139.9</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
@@ -1152,86 +1155,83 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F9">
-        <v>139.9</v>
+        <v>87.9</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10">
-        <v>87.9</v>
+        <v>94.9</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F11">
-        <v>94.9</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>99.9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1239,28 +1239,31 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F12">
-        <v>99.9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
+        <v>129.9</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
@@ -1268,31 +1271,28 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
       </c>
       <c r="F13">
         <v>129.9</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1300,28 +1300,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>129.9</v>
+        <v>110</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1329,28 +1329,25 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>74</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1358,80 +1355,80 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17">
         <v>75</v>
       </c>
-      <c r="I16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17">
-        <v>32</v>
-      </c>
       <c r="G17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
         <v>79</v>
       </c>
-      <c r="H17" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F18">
-        <v>75</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>84</v>
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -1439,25 +1436,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F19">
-        <v>52</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
+        <v>62.9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
         <v>16</v>
@@ -1465,28 +1465,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>62.9</v>
+        <v>175</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="J20" t="s">
         <v>16</v>
@@ -1494,28 +1494,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F21">
-        <v>175</v>
+        <v>135.9</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -1523,31 +1526,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F22">
-        <v>135.9</v>
+        <v>105.9</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -1555,31 +1558,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F23">
-        <v>105.9</v>
+        <v>199.9</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -1587,38 +1590,35 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>199.9</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>112</v>
+        <v>45.9</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="1">
@@ -1627,14 +1627,14 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="G16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1644,13 +1644,13 @@
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>I5 I17 B18 I19 I12:I13</xm:sqref>
+          <xm:sqref>I5 I16 B17 I18 I11:I12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Categorias!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B22 B2:B17 B19:B21 B23:B24</xm:sqref>
+          <xm:sqref>B18:B23 B2:B16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1660,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1689,55 +1689,63 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1749,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1768,28 +1776,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>16</v>
@@ -1797,10 +1805,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1818,15 +1826,15 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1844,15 +1852,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -1870,18 +1878,18 @@
         <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1902,15 +1910,15 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1928,18 +1936,18 @@
         <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1957,18 +1965,18 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1986,18 +1994,18 @@
         <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2015,18 +2023,18 @@
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2044,18 +2052,18 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2073,15 +2081,15 @@
         <v>50</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2099,15 +2107,15 @@
         <v>50</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2125,15 +2133,15 @@
         <v>50</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -2151,15 +2159,15 @@
         <v>50</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -2177,7 +2185,7 @@
         <v>50</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2218,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6640625" defaultRowHeight="14.4"/>
@@ -2226,52 +2234,52 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
         <v>142</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>146</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
         <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
